--- a/electronics/Mainbord_BOM/Kivipallur_BOM.xlsx
+++ b/electronics/Mainbord_BOM/Kivipallur_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspar\Desktop\võistlusrobootika\Plaadijoonised\Kivipallur\Project Outputs for Kivipallur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaspa\Desktop\voistlusrobootika\picr22-team-kivipallur-jurto\electronics\Mainbord_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="8_{7B541A6C-F7D6-4ED4-98A4-0BE3BD3E41BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B05761D6-1E1D-45B1-8134-7ACF9B343215}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E3D603-6DEF-4FD4-B07F-A586E63C580D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="34560" windowHeight="18600" xr2:uid="{80B9AD32-C72B-4C52-8247-68D1A7315D03}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{80B9AD32-C72B-4C52-8247-68D1A7315D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Kivipallur" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
   <si>
     <t>Name</t>
   </si>
@@ -141,24 +141,6 @@
   </si>
   <si>
     <t>859-LTST-C191TBKT</t>
-  </si>
-  <si>
-    <t>Kruvi_auk</t>
-  </si>
-  <si>
-    <t>Mounting hole</t>
-  </si>
-  <si>
-    <t>H1, H2, H3</t>
-  </si>
-  <si>
-    <t>3x3_mm</t>
-  </si>
-  <si>
-    <t>Soldering pad</t>
-  </si>
-  <si>
-    <t>J1, J2, J3, J4, J5, J6, J16, J17, J18, J19</t>
   </si>
   <si>
     <t>FTSH-105-XX-X-DV</t>
@@ -360,7 +342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,10 +413,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -454,17 +435,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hüperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Normaallaad" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -776,24 +756,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D19A8B6-1404-4CA8-B72B-7668C5E23A1D}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="54.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="54.453125" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -816,7 +796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -837,7 +817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -858,7 +838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -879,7 +859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -900,7 +880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -921,7 +901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -942,7 +922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -965,7 +945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -976,13 +956,13 @@
         <v>36</v>
       </c>
       <c r="D9" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -993,405 +973,371 @@
         <v>39</v>
       </c>
       <c r="D10" s="4">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
+        <v>1568026</v>
+      </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4">
-        <v>7</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2901832</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5">
-        <v>1568026</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="15">
+      <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D14" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" s="5">
-        <v>2901832</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="15">
+        <v>2309106</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5">
+        <v>2309106</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F16" s="5">
         <v>2309106</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15">
-      <c r="A17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D17" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F17" s="5">
         <v>2309106</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D18" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F18" s="5">
         <v>2309106</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F19" s="5">
         <v>2309106</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="4">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="5">
-        <v>2309106</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D21" s="4">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="4">
         <v>1</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="5">
-        <v>2309106</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="4">
-        <v>3</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="15">
+      <c r="E22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D23" s="4">
-        <v>3</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="15">
-      <c r="A26" s="3" t="s">
+      <c r="E25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15">
-      <c r="A27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F26" r:id="rId1" xr:uid="{6831A57C-84D0-490C-8799-CBC1666A7119}"/>
-    <hyperlink ref="E26" r:id="rId2" xr:uid="{F203F66D-1BE4-43E4-8B52-1924EF186395}"/>
-    <hyperlink ref="G12" r:id="rId3" xr:uid="{E2754C46-70B5-4096-823F-26DFA6BC52A9}"/>
-    <hyperlink ref="E15" r:id="rId4" xr:uid="{7F7FCD14-DD48-401C-8433-A19A69081A08}"/>
-    <hyperlink ref="F15" r:id="rId5" xr:uid="{959BDFBE-E3C7-4BC0-9911-7D1069793AE2}"/>
-    <hyperlink ref="F24" r:id="rId6" xr:uid="{77341803-A9A4-4ACB-B480-32D09B457660}"/>
-    <hyperlink ref="E24" r:id="rId7" xr:uid="{D2CDFDA6-6E9F-4D40-914D-DD1DC120DE54}"/>
-    <hyperlink ref="E23" r:id="rId8" xr:uid="{25B410D2-B6E9-4924-8CDB-2C7704949726}"/>
-    <hyperlink ref="F23" r:id="rId9" xr:uid="{812CD423-1745-4A21-A01A-698D1157E140}"/>
-    <hyperlink ref="F27" r:id="rId10" xr:uid="{0CB6E810-62A0-4162-8C65-2A87882B182B}"/>
-    <hyperlink ref="E27" r:id="rId11" xr:uid="{6928495C-5886-4810-A7DD-9ACFA15B3951}"/>
-    <hyperlink ref="G24" r:id="rId12" xr:uid="{39B53F71-ABA4-47C4-9DAE-93CFB32C2EC6}"/>
-    <hyperlink ref="G26" r:id="rId13" xr:uid="{D41BB729-D08C-4A4C-BE80-1BFFD82E15CF}"/>
-    <hyperlink ref="G27" r:id="rId14" xr:uid="{53C2AEE8-E0F6-49CE-A4C7-F369023DA8B4}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{102D2058-E5B4-42D5-91D1-3FDE98C77905}"/>
-    <hyperlink ref="E17:E21" r:id="rId16" display="652-CMP0603-FX-3300L" xr:uid="{95B0A56A-6F2E-43A7-AEE9-0FAEC10DF481}"/>
-    <hyperlink ref="F16" r:id="rId17" display="2309106" xr:uid="{73D96EC8-B793-4980-9B01-144E0BD5DD8C}"/>
-    <hyperlink ref="F17:F21" r:id="rId18" display="2309106" xr:uid="{404052A1-CB79-4A67-8052-E8E7D9C8A2CA}"/>
-    <hyperlink ref="G16" r:id="rId19" xr:uid="{AFF8436A-4869-4512-AEF2-67C099528344}"/>
-    <hyperlink ref="G17:G21" r:id="rId20" display="0603SAF0000T5E" xr:uid="{6D39D33E-74AC-4A5C-B9FE-83E65F616358}"/>
-    <hyperlink ref="G15" r:id="rId21" xr:uid="{ED2432F0-FFE9-41DA-B845-53C1789454B5}"/>
-    <hyperlink ref="E14" r:id="rId22" xr:uid="{CAEB195C-540E-46AF-A116-FD654CA19318}"/>
-    <hyperlink ref="F14" r:id="rId23" display="2901832" xr:uid="{AC8E0670-E183-44A9-8E42-FC2607F1BE0E}"/>
-    <hyperlink ref="E12:E13" r:id="rId24" display="571-215079-4" xr:uid="{0CA0ED95-4CD4-448B-BEB5-BD12DFE74511}"/>
-    <hyperlink ref="F13" r:id="rId25" display="1568026" xr:uid="{1A2E6D54-DB48-4360-95B3-F3FC63B44F60}"/>
-    <hyperlink ref="F12" r:id="rId26" xr:uid="{DFA9833B-6D89-42F7-9E95-9F8E53A55652}"/>
+    <hyperlink ref="F24" r:id="rId1" xr:uid="{6831A57C-84D0-490C-8799-CBC1666A7119}"/>
+    <hyperlink ref="E24" r:id="rId2" xr:uid="{F203F66D-1BE4-43E4-8B52-1924EF186395}"/>
+    <hyperlink ref="G10" r:id="rId3" xr:uid="{E2754C46-70B5-4096-823F-26DFA6BC52A9}"/>
+    <hyperlink ref="E13" r:id="rId4" xr:uid="{7F7FCD14-DD48-401C-8433-A19A69081A08}"/>
+    <hyperlink ref="F13" r:id="rId5" xr:uid="{959BDFBE-E3C7-4BC0-9911-7D1069793AE2}"/>
+    <hyperlink ref="F22" r:id="rId6" xr:uid="{77341803-A9A4-4ACB-B480-32D09B457660}"/>
+    <hyperlink ref="E22" r:id="rId7" xr:uid="{D2CDFDA6-6E9F-4D40-914D-DD1DC120DE54}"/>
+    <hyperlink ref="E21" r:id="rId8" xr:uid="{25B410D2-B6E9-4924-8CDB-2C7704949726}"/>
+    <hyperlink ref="F21" r:id="rId9" xr:uid="{812CD423-1745-4A21-A01A-698D1157E140}"/>
+    <hyperlink ref="F25" r:id="rId10" xr:uid="{0CB6E810-62A0-4162-8C65-2A87882B182B}"/>
+    <hyperlink ref="E25" r:id="rId11" xr:uid="{6928495C-5886-4810-A7DD-9ACFA15B3951}"/>
+    <hyperlink ref="G22" r:id="rId12" xr:uid="{39B53F71-ABA4-47C4-9DAE-93CFB32C2EC6}"/>
+    <hyperlink ref="G24" r:id="rId13" xr:uid="{D41BB729-D08C-4A4C-BE80-1BFFD82E15CF}"/>
+    <hyperlink ref="G25" r:id="rId14" xr:uid="{53C2AEE8-E0F6-49CE-A4C7-F369023DA8B4}"/>
+    <hyperlink ref="E14" r:id="rId15" xr:uid="{102D2058-E5B4-42D5-91D1-3FDE98C77905}"/>
+    <hyperlink ref="E15:E19" r:id="rId16" display="652-CMP0603-FX-3300L" xr:uid="{95B0A56A-6F2E-43A7-AEE9-0FAEC10DF481}"/>
+    <hyperlink ref="F14" r:id="rId17" display="2309106" xr:uid="{73D96EC8-B793-4980-9B01-144E0BD5DD8C}"/>
+    <hyperlink ref="F15:F19" r:id="rId18" display="2309106" xr:uid="{404052A1-CB79-4A67-8052-E8E7D9C8A2CA}"/>
+    <hyperlink ref="G14" r:id="rId19" xr:uid="{AFF8436A-4869-4512-AEF2-67C099528344}"/>
+    <hyperlink ref="G15:G19" r:id="rId20" display="0603SAF0000T5E" xr:uid="{6D39D33E-74AC-4A5C-B9FE-83E65F616358}"/>
+    <hyperlink ref="G13" r:id="rId21" xr:uid="{ED2432F0-FFE9-41DA-B845-53C1789454B5}"/>
+    <hyperlink ref="E12" r:id="rId22" xr:uid="{CAEB195C-540E-46AF-A116-FD654CA19318}"/>
+    <hyperlink ref="F12" r:id="rId23" display="2901832" xr:uid="{AC8E0670-E183-44A9-8E42-FC2607F1BE0E}"/>
+    <hyperlink ref="E10:E11" r:id="rId24" display="571-215079-4" xr:uid="{0CA0ED95-4CD4-448B-BEB5-BD12DFE74511}"/>
+    <hyperlink ref="F11" r:id="rId25" display="1568026" xr:uid="{1A2E6D54-DB48-4360-95B3-F3FC63B44F60}"/>
+    <hyperlink ref="F10" r:id="rId26" xr:uid="{DFA9833B-6D89-42F7-9E95-9F8E53A55652}"/>
     <hyperlink ref="E8" r:id="rId27" xr:uid="{0CE9CD5A-A259-4564-8A91-968A9C6C82EC}"/>
     <hyperlink ref="G8" r:id="rId28" xr:uid="{2BE4D72A-2014-43A6-87B2-E5091BFFED6D}"/>
     <hyperlink ref="F8" r:id="rId29" display="1610883" xr:uid="{B03342CE-AF84-419A-90A6-3C8F3E6CDA3A}"/>
